--- a/Tables/did_reg_p_t.xlsx
+++ b/Tables/did_reg_p_t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B7EAC41-DDCD-4950-95A3-B30865130C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A67DCF-9DA4-46A1-91D8-A79C23C42384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{17F07208-105D-4672-98AD-8A1596F3C611}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{17F07208-105D-4672-98AD-8A1596F3C611}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_p_t" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +219,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -256,16 +256,16 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-1.17***</v>
+            <v>-0.076***</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-1.58***</v>
+            <v>-0.0036</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-1.16***</v>
+            <v>-0.093***</v>
           </cell>
           <cell r="E5" t="str">
-            <v>-1.55***</v>
+            <v>-0.0036</v>
           </cell>
         </row>
         <row r="6">
@@ -273,30 +273,30 @@
             <v/>
           </cell>
           <cell r="B6" t="str">
-            <v>(0.040)</v>
+            <v>(0.018)</v>
           </cell>
           <cell r="C6" t="str">
-            <v>(0.053)</v>
+            <v>(0.015)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.040)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.053)</v>
+            <v>(0.016)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.64***</v>
+            <v>-0.048***</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.77***</v>
+            <v>-0.022**</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.63***</v>
+            <v>-0.057***</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.75***</v>
+            <v>-0.025***</v>
           </cell>
         </row>
         <row r="9">
@@ -304,30 +304,30 @@
             <v/>
           </cell>
           <cell r="B9" t="str">
-            <v>(0.026)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.028)</v>
+            <v>(0.0088)</v>
           </cell>
           <cell r="D9" t="str">
-            <v>(0.026)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="E9" t="str">
-            <v>(0.028)</v>
+            <v>(0.0089)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>-0.33***</v>
+            <v>-0.024***</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.38***</v>
+            <v>-0.013***</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.32***</v>
+            <v>-0.029***</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.37***</v>
+            <v>-0.014***</v>
           </cell>
         </row>
         <row r="12">
@@ -335,30 +335,30 @@
             <v/>
           </cell>
           <cell r="B12" t="str">
-            <v>(0.013)</v>
+            <v>(0.0057)</v>
           </cell>
           <cell r="C12" t="str">
-            <v>(0.014)</v>
+            <v>(0.0046)</v>
           </cell>
           <cell r="D12" t="str">
-            <v>(0.013)</v>
+            <v>(0.0059)</v>
           </cell>
           <cell r="E12" t="str">
-            <v>(0.014)</v>
+            <v>(0.0047)</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>0.32***</v>
+            <v>0.022***</v>
           </cell>
           <cell r="C14" t="str">
-            <v>0.37***</v>
+            <v>0.015***</v>
           </cell>
           <cell r="D14" t="str">
-            <v>0.31***</v>
+            <v>0.027***</v>
           </cell>
           <cell r="E14" t="str">
-            <v>0.37***</v>
+            <v>0.018***</v>
           </cell>
         </row>
         <row r="15">
@@ -366,30 +366,30 @@
             <v/>
           </cell>
           <cell r="B15" t="str">
-            <v>(0.013)</v>
+            <v>(0.0063)</v>
           </cell>
           <cell r="C15" t="str">
-            <v>(0.014)</v>
+            <v>(0.0053)</v>
           </cell>
           <cell r="D15" t="str">
-            <v>(0.013)</v>
+            <v>(0.0067)</v>
           </cell>
           <cell r="E15" t="str">
-            <v>(0.014)</v>
+            <v>(0.0056)</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.64***</v>
+            <v>0.048***</v>
           </cell>
           <cell r="C17" t="str">
-            <v>0.75***</v>
+            <v>0.038***</v>
           </cell>
           <cell r="D17" t="str">
-            <v>0.63***</v>
+            <v>0.062***</v>
           </cell>
           <cell r="E17" t="str">
-            <v>0.73***</v>
+            <v>0.046***</v>
           </cell>
         </row>
         <row r="18">
@@ -397,30 +397,30 @@
             <v/>
           </cell>
           <cell r="B18" t="str">
-            <v>(0.025)</v>
+            <v>(0.012)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.028)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="D18" t="str">
-            <v>(0.025)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="E18" t="str">
-            <v>(0.028)</v>
+            <v>(0.011)</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>0.95***</v>
+            <v>0.072***</v>
           </cell>
           <cell r="C20" t="str">
-            <v>1.11***</v>
+            <v>0.063***</v>
           </cell>
           <cell r="D20" t="str">
-            <v>0.94***</v>
+            <v>0.10***</v>
           </cell>
           <cell r="E20" t="str">
-            <v>1.10***</v>
+            <v>0.085***</v>
           </cell>
         </row>
         <row r="21">
@@ -428,30 +428,30 @@
             <v/>
           </cell>
           <cell r="B21" t="str">
-            <v>(0.038)</v>
+            <v>(0.018)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.042)</v>
+            <v>(0.016)</v>
           </cell>
           <cell r="D21" t="str">
-            <v>(0.038)</v>
+            <v>(0.020)</v>
           </cell>
           <cell r="E21" t="str">
-            <v>(0.042)</v>
+            <v>(0.017)</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>1.27***</v>
+            <v>0.098***</v>
           </cell>
           <cell r="C23" t="str">
-            <v>1.49***</v>
+            <v>0.095***</v>
           </cell>
           <cell r="D23" t="str">
-            <v>1.26***</v>
+            <v>0.14***</v>
           </cell>
           <cell r="E23" t="str">
-            <v>1.47***</v>
+            <v>0.13***</v>
           </cell>
         </row>
         <row r="24">
@@ -459,30 +459,30 @@
             <v/>
           </cell>
           <cell r="B24" t="str">
-            <v>(0.051)</v>
+            <v>(0.024)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.055)</v>
+            <v>(0.022)</v>
           </cell>
           <cell r="D24" t="str">
-            <v>(0.050)</v>
+            <v>(0.026)</v>
           </cell>
           <cell r="E24" t="str">
-            <v>(0.055)</v>
+            <v>(0.024)</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>1.55***</v>
+            <v>0.16***</v>
           </cell>
           <cell r="C26" t="str">
-            <v>1.83***</v>
+            <v>0.19***</v>
           </cell>
           <cell r="D26" t="str">
-            <v>1.54***</v>
+            <v>0.22***</v>
           </cell>
           <cell r="E26" t="str">
-            <v>1.81***</v>
+            <v>0.24***</v>
           </cell>
         </row>
         <row r="27">
@@ -490,16 +490,16 @@
             <v/>
           </cell>
           <cell r="B27" t="str">
-            <v>(0.095)</v>
+            <v>(0.039)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.096)</v>
+            <v>(0.038)</v>
           </cell>
           <cell r="D27" t="str">
-            <v>(0.093)</v>
+            <v>(0.042)</v>
           </cell>
           <cell r="E27" t="str">
-            <v>(0.094)</v>
+            <v>(0.040)</v>
           </cell>
         </row>
         <row r="29">
@@ -518,16 +518,16 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>0.832</v>
+            <v>0.986</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.835</v>
+            <v>0.986</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.854</v>
+            <v>0.984</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.856</v>
+            <v>0.984</v>
           </cell>
         </row>
         <row r="31">
@@ -549,16 +549,16 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="C32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="D32" t="str">
-            <v>2120</v>
+            <v/>
           </cell>
           <cell r="E32" t="str">
-            <v>2120</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -1097,28 +1097,28 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1392</v>
+            <v/>
           </cell>
           <cell r="C32" t="str">
-            <v>2195</v>
+            <v/>
           </cell>
           <cell r="D32" t="str">
-            <v>1392</v>
+            <v/>
           </cell>
           <cell r="E32" t="str">
-            <v>2195</v>
+            <v/>
           </cell>
           <cell r="F32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="G32" t="str">
-            <v>2192</v>
+            <v/>
           </cell>
           <cell r="H32" t="str">
-            <v>1389</v>
+            <v/>
           </cell>
           <cell r="I32" t="str">
-            <v>1647</v>
+            <v/>
           </cell>
         </row>
       </sheetData>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3021C40D-0993-4ED2-91BA-9570AC7E600B}">
   <dimension ref="A2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,21 +1438,21 @@
   <sheetData>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="str">
@@ -1492,16 +1492,16 @@
         <v>(8)</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1543,19 +1543,19 @@
       </c>
       <c r="K4" s="2" t="str">
         <f>[1]did_reg_p_t!B5</f>
-        <v>-1.17***</v>
+        <v>-0.076***</v>
       </c>
       <c r="L4" s="2" t="str">
         <f>[1]did_reg_p_t!C5</f>
-        <v>-1.58***</v>
+        <v>-0.0036</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>[1]did_reg_p_t!D5</f>
-        <v>-1.16***</v>
+        <v>-0.093***</v>
       </c>
       <c r="N4" s="2" t="str">
         <f>[1]did_reg_p_t!E5</f>
-        <v>-1.55***</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="K5" s="2" t="str">
         <f>[1]did_reg_p_t!B6</f>
-        <v>(0.040)</v>
+        <v>(0.018)</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>[1]did_reg_p_t!C6</f>
-        <v>(0.053)</v>
+        <v>(0.015)</v>
       </c>
       <c r="M5" s="2" t="str">
         <f>[1]did_reg_p_t!D6</f>
-        <v>(0.040)</v>
+        <v>(0.019)</v>
       </c>
       <c r="N5" s="2" t="str">
         <f>[1]did_reg_p_t!E6</f>
-        <v>(0.053)</v>
+        <v>(0.016)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1650,19 +1650,19 @@
       </c>
       <c r="K6" s="2" t="str">
         <f>[1]did_reg_p_t!B8</f>
-        <v>-0.64***</v>
+        <v>-0.048***</v>
       </c>
       <c r="L6" s="2" t="str">
         <f>[1]did_reg_p_t!C8</f>
-        <v>-0.77***</v>
+        <v>-0.022**</v>
       </c>
       <c r="M6" s="2" t="str">
         <f>[1]did_reg_p_t!D8</f>
-        <v>-0.63***</v>
+        <v>-0.057***</v>
       </c>
       <c r="N6" s="2" t="str">
         <f>[1]did_reg_p_t!E8</f>
-        <v>-0.75***</v>
+        <v>-0.025***</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1704,19 +1704,19 @@
       </c>
       <c r="K7" s="2" t="str">
         <f>[1]did_reg_p_t!B9</f>
-        <v>(0.026)</v>
+        <v>(0.011)</v>
       </c>
       <c r="L7" s="2" t="str">
         <f>[1]did_reg_p_t!C9</f>
-        <v>(0.028)</v>
+        <v>(0.0088)</v>
       </c>
       <c r="M7" s="2" t="str">
         <f>[1]did_reg_p_t!D9</f>
-        <v>(0.026)</v>
+        <v>(0.011)</v>
       </c>
       <c r="N7" s="2" t="str">
         <f>[1]did_reg_p_t!E9</f>
-        <v>(0.028)</v>
+        <v>(0.0089)</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="K8" s="2" t="str">
         <f>[1]did_reg_p_t!B11</f>
-        <v>-0.33***</v>
+        <v>-0.024***</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>[1]did_reg_p_t!C11</f>
-        <v>-0.38***</v>
+        <v>-0.013***</v>
       </c>
       <c r="M8" s="2" t="str">
         <f>[1]did_reg_p_t!D11</f>
-        <v>-0.32***</v>
+        <v>-0.029***</v>
       </c>
       <c r="N8" s="2" t="str">
         <f>[1]did_reg_p_t!E11</f>
-        <v>-0.37***</v>
+        <v>-0.014***</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1811,19 +1811,19 @@
       </c>
       <c r="K9" s="2" t="str">
         <f>[1]did_reg_p_t!B12</f>
-        <v>(0.013)</v>
+        <v>(0.0057)</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>[1]did_reg_p_t!C12</f>
-        <v>(0.014)</v>
+        <v>(0.0046)</v>
       </c>
       <c r="M9" s="2" t="str">
         <f>[1]did_reg_p_t!D12</f>
-        <v>(0.013)</v>
+        <v>(0.0059)</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>[1]did_reg_p_t!E12</f>
-        <v>(0.014)</v>
+        <v>(0.0047)</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1864,19 +1864,19 @@
       </c>
       <c r="K10" s="2" t="str">
         <f>[1]did_reg_p_t!B14</f>
-        <v>0.32***</v>
+        <v>0.022***</v>
       </c>
       <c r="L10" s="2" t="str">
         <f>[1]did_reg_p_t!C14</f>
-        <v>0.37***</v>
+        <v>0.015***</v>
       </c>
       <c r="M10" s="2" t="str">
         <f>[1]did_reg_p_t!D14</f>
-        <v>0.31***</v>
+        <v>0.027***</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>[1]did_reg_p_t!E14</f>
-        <v>0.37***</v>
+        <v>0.018***</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1918,19 +1918,19 @@
       </c>
       <c r="K11" s="2" t="str">
         <f>[1]did_reg_p_t!B15</f>
-        <v>(0.013)</v>
+        <v>(0.0063)</v>
       </c>
       <c r="L11" s="2" t="str">
         <f>[1]did_reg_p_t!C15</f>
-        <v>(0.014)</v>
+        <v>(0.0053)</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>[1]did_reg_p_t!D15</f>
-        <v>(0.013)</v>
+        <v>(0.0067)</v>
       </c>
       <c r="N11" s="2" t="str">
         <f>[1]did_reg_p_t!E15</f>
-        <v>(0.014)</v>
+        <v>(0.0056)</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1971,19 +1971,19 @@
       </c>
       <c r="K12" s="2" t="str">
         <f>[1]did_reg_p_t!B17</f>
-        <v>0.64***</v>
+        <v>0.048***</v>
       </c>
       <c r="L12" s="2" t="str">
         <f>[1]did_reg_p_t!C17</f>
-        <v>0.75***</v>
+        <v>0.038***</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>[1]did_reg_p_t!D17</f>
-        <v>0.63***</v>
+        <v>0.062***</v>
       </c>
       <c r="N12" s="2" t="str">
         <f>[1]did_reg_p_t!E17</f>
-        <v>0.73***</v>
+        <v>0.046***</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -2025,19 +2025,19 @@
       </c>
       <c r="K13" s="2" t="str">
         <f>[1]did_reg_p_t!B18</f>
-        <v>(0.025)</v>
+        <v>(0.012)</v>
       </c>
       <c r="L13" s="2" t="str">
         <f>[1]did_reg_p_t!C18</f>
-        <v>(0.028)</v>
+        <v>(0.011)</v>
       </c>
       <c r="M13" s="2" t="str">
         <f>[1]did_reg_p_t!D18</f>
-        <v>(0.025)</v>
+        <v>(0.013)</v>
       </c>
       <c r="N13" s="2" t="str">
         <f>[1]did_reg_p_t!E18</f>
-        <v>(0.028)</v>
+        <v>(0.011)</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -2078,19 +2078,19 @@
       </c>
       <c r="K14" s="2" t="str">
         <f>[1]did_reg_p_t!B20</f>
-        <v>0.95***</v>
+        <v>0.072***</v>
       </c>
       <c r="L14" s="2" t="str">
         <f>[1]did_reg_p_t!C20</f>
-        <v>1.11***</v>
+        <v>0.063***</v>
       </c>
       <c r="M14" s="2" t="str">
         <f>[1]did_reg_p_t!D20</f>
-        <v>0.94***</v>
+        <v>0.10***</v>
       </c>
       <c r="N14" s="2" t="str">
         <f>[1]did_reg_p_t!E20</f>
-        <v>1.10***</v>
+        <v>0.085***</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -2132,19 +2132,19 @@
       </c>
       <c r="K15" s="2" t="str">
         <f>[1]did_reg_p_t!B21</f>
-        <v>(0.038)</v>
+        <v>(0.018)</v>
       </c>
       <c r="L15" s="2" t="str">
         <f>[1]did_reg_p_t!C21</f>
-        <v>(0.042)</v>
+        <v>(0.016)</v>
       </c>
       <c r="M15" s="2" t="str">
         <f>[1]did_reg_p_t!D21</f>
-        <v>(0.038)</v>
+        <v>(0.020)</v>
       </c>
       <c r="N15" s="2" t="str">
         <f>[1]did_reg_p_t!E21</f>
-        <v>(0.042)</v>
+        <v>(0.017)</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2185,19 +2185,19 @@
       </c>
       <c r="K16" s="2" t="str">
         <f>[1]did_reg_p_t!B23</f>
-        <v>1.27***</v>
+        <v>0.098***</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>[1]did_reg_p_t!C23</f>
-        <v>1.49***</v>
+        <v>0.095***</v>
       </c>
       <c r="M16" s="2" t="str">
         <f>[1]did_reg_p_t!D23</f>
-        <v>1.26***</v>
+        <v>0.14***</v>
       </c>
       <c r="N16" s="2" t="str">
         <f>[1]did_reg_p_t!E23</f>
-        <v>1.47***</v>
+        <v>0.13***</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -2239,19 +2239,19 @@
       </c>
       <c r="K17" s="2" t="str">
         <f>[1]did_reg_p_t!B24</f>
-        <v>(0.051)</v>
+        <v>(0.024)</v>
       </c>
       <c r="L17" s="2" t="str">
         <f>[1]did_reg_p_t!C24</f>
-        <v>(0.055)</v>
+        <v>(0.022)</v>
       </c>
       <c r="M17" s="2" t="str">
         <f>[1]did_reg_p_t!D24</f>
-        <v>(0.050)</v>
+        <v>(0.026)</v>
       </c>
       <c r="N17" s="2" t="str">
         <f>[1]did_reg_p_t!E24</f>
-        <v>(0.055)</v>
+        <v>(0.024)</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -2292,19 +2292,19 @@
       </c>
       <c r="K18" s="2" t="str">
         <f>[1]did_reg_p_t!B26</f>
-        <v>1.55***</v>
+        <v>0.16***</v>
       </c>
       <c r="L18" s="2" t="str">
         <f>[1]did_reg_p_t!C26</f>
-        <v>1.83***</v>
+        <v>0.19***</v>
       </c>
       <c r="M18" s="2" t="str">
         <f>[1]did_reg_p_t!D26</f>
-        <v>1.54***</v>
+        <v>0.22***</v>
       </c>
       <c r="N18" s="2" t="str">
         <f>[1]did_reg_p_t!E26</f>
-        <v>1.81***</v>
+        <v>0.24***</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -2346,39 +2346,39 @@
       </c>
       <c r="K19" s="2" t="str">
         <f>[1]did_reg_p_t!B27</f>
-        <v>(0.095)</v>
+        <v>(0.039)</v>
       </c>
       <c r="L19" s="2" t="str">
         <f>[1]did_reg_p_t!C27</f>
-        <v>(0.096)</v>
+        <v>(0.038)</v>
       </c>
       <c r="M19" s="2" t="str">
         <f>[1]did_reg_p_t!D27</f>
-        <v>(0.093)</v>
+        <v>(0.042)</v>
       </c>
       <c r="N19" s="2" t="str">
         <f>[1]did_reg_p_t!E27</f>
-        <v>(0.094)</v>
+        <v>(0.040)</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="str">
@@ -2413,7 +2413,7 @@
         <f>[2]did_bc_p_t!I29</f>
         <v>72705</v>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="8" t="str">
         <f>[1]did_reg_p_t!B29</f>
         <v>66636</v>
       </c>
@@ -2436,51 +2436,51 @@
       </c>
       <c r="B22" t="str">
         <f>[2]did_bc_p_t!B32</f>
-        <v>1392</v>
+        <v/>
       </c>
       <c r="C22" t="str">
         <f>[2]did_bc_p_t!C32</f>
-        <v>2195</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <f>[2]did_bc_p_t!D32</f>
-        <v>1392</v>
+        <v/>
       </c>
       <c r="E22" t="str">
         <f>[2]did_bc_p_t!E32</f>
-        <v>2195</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <f>[2]did_bc_p_t!F32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <f>[2]did_bc_p_t!G32</f>
-        <v>2192</v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <f>[2]did_bc_p_t!H32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <f>[2]did_bc_p_t!I32</f>
-        <v>1647</v>
+        <v/>
       </c>
       <c r="K22" s="2" t="str">
         <f>[1]did_reg_p_t!B32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="L22" s="2" t="str">
         <f>[1]did_reg_p_t!C32</f>
-        <v>1389</v>
+        <v/>
       </c>
       <c r="M22" s="2" t="str">
         <f>[1]did_reg_p_t!D32</f>
-        <v>2120</v>
+        <v/>
       </c>
       <c r="N22" s="2" t="str">
         <f>[1]did_reg_p_t!E32</f>
-        <v>2120</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -2521,122 +2521,122 @@
       </c>
       <c r="K23" s="2" t="str">
         <f>[1]did_reg_p_t!B30</f>
-        <v>0.832</v>
+        <v>0.986</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>[1]did_reg_p_t!C30</f>
-        <v>0.835</v>
+        <v>0.986</v>
       </c>
       <c r="M23" s="2" t="str">
         <f>[1]did_reg_p_t!D30</f>
-        <v>0.854</v>
+        <v>0.984</v>
       </c>
       <c r="N23" s="2" t="str">
         <f>[1]did_reg_p_t!E30</f>
-        <v>0.856</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="11" t="str">
         <f>[1]did_reg_p_t!A31</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="11" t="str">
         <f>[2]did_bc_p_t!B31</f>
         <v>4.20</v>
       </c>
-      <c r="C24" s="12" t="str">
+      <c r="C24" s="11" t="str">
         <f>[2]did_bc_p_t!C31</f>
         <v>3.71</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="11" t="str">
         <f>[2]did_bc_p_t!D31</f>
         <v>4.25</v>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="E24" s="11" t="str">
         <f>[2]did_bc_p_t!E31</f>
         <v>3.71</v>
       </c>
-      <c r="F24" s="12" t="str">
+      <c r="F24" s="11" t="str">
         <f>[2]did_bc_p_t!F31</f>
         <v>4.24</v>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="11" t="str">
         <f>[2]did_bc_p_t!G31</f>
         <v>3.70</v>
       </c>
-      <c r="H24" s="12" t="str">
+      <c r="H24" s="11" t="str">
         <f>[2]did_bc_p_t!H31</f>
         <v>4.24</v>
       </c>
-      <c r="I24" s="12" t="str">
+      <c r="I24" s="11" t="str">
         <f>[2]did_bc_p_t!I31</f>
         <v>3.89</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13" t="str">
+      <c r="J24" s="11"/>
+      <c r="K24" s="12" t="str">
         <f>[1]did_reg_p_t!B31</f>
         <v>4.15</v>
       </c>
-      <c r="L24" s="13" t="str">
+      <c r="L24" s="12" t="str">
         <f>[1]did_reg_p_t!C31</f>
         <v>4.15</v>
       </c>
-      <c r="M24" s="13" t="str">
+      <c r="M24" s="12" t="str">
         <f>[1]did_reg_p_t!D31</f>
         <v>3.70</v>
       </c>
-      <c r="N24" s="13" t="str">
+      <c r="N24" s="12" t="str">
         <f>[1]did_reg_p_t!E31</f>
         <v>3.70</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2656,28 +2656,28 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="9" t="s">
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -2697,58 +2697,58 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
+      <c r="F28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
+      <c r="H29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="4"/>
@@ -2772,8 +2772,8 @@
       <c r="N30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
